--- a/Web_API/CovidService/bin/Province.xlsx
+++ b/Web_API/CovidService/bin/Province.xlsx
@@ -19,195 +19,9 @@
     <t>Thành phố Trung ương</t>
   </si>
   <si>
-    <t>Tỉnh Hà Giang</t>
-  </si>
-  <si>
     <t>Tỉnh</t>
   </si>
   <si>
-    <t>Tỉnh Cao Bằng</t>
-  </si>
-  <si>
-    <t>Tỉnh Bắc Kạn</t>
-  </si>
-  <si>
-    <t>Tỉnh Tuyên Quang</t>
-  </si>
-  <si>
-    <t>Tỉnh Lào Cai</t>
-  </si>
-  <si>
-    <t>Tỉnh Điện Biên</t>
-  </si>
-  <si>
-    <t>Tỉnh Lai Châu</t>
-  </si>
-  <si>
-    <t>Tỉnh Sơn La</t>
-  </si>
-  <si>
-    <t>Tỉnh Yên Bái</t>
-  </si>
-  <si>
-    <t>Tỉnh Hoà Bình</t>
-  </si>
-  <si>
-    <t>Tỉnh Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Tỉnh Lạng Sơn</t>
-  </si>
-  <si>
-    <t>Tỉnh Quảng Ninh</t>
-  </si>
-  <si>
-    <t>Tỉnh Bắc Giang</t>
-  </si>
-  <si>
-    <t>Tỉnh Phú Thọ</t>
-  </si>
-  <si>
-    <t>Tỉnh Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t>Tỉnh Bắc Ninh</t>
-  </si>
-  <si>
-    <t>Tỉnh Hải Dương</t>
-  </si>
-  <si>
-    <t>Thành phố Hải Phòng</t>
-  </si>
-  <si>
-    <t>Tỉnh Hưng Yên</t>
-  </si>
-  <si>
-    <t>Tỉnh Thái Bình</t>
-  </si>
-  <si>
-    <t>Tỉnh Hà Nam</t>
-  </si>
-  <si>
-    <t>Tỉnh Nam Định</t>
-  </si>
-  <si>
-    <t>Tỉnh Ninh Bình</t>
-  </si>
-  <si>
-    <t>Tỉnh Thanh Hóa</t>
-  </si>
-  <si>
-    <t>Tỉnh Nghệ An</t>
-  </si>
-  <si>
-    <t>Tỉnh Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>Tỉnh Quảng Bình</t>
-  </si>
-  <si>
-    <t>Tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>Tỉnh Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t>Thành phố Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Tỉnh Quảng Nam</t>
-  </si>
-  <si>
-    <t>Tỉnh Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>Tỉnh Bình Định</t>
-  </si>
-  <si>
-    <t>Tỉnh Phú Yên</t>
-  </si>
-  <si>
-    <t>Tỉnh Khánh Hòa</t>
-  </si>
-  <si>
-    <t>Tỉnh Ninh Thuận</t>
-  </si>
-  <si>
-    <t>Tỉnh Bình Thuận</t>
-  </si>
-  <si>
-    <t>Tỉnh Kon Tum</t>
-  </si>
-  <si>
-    <t>Tỉnh Gia Lai</t>
-  </si>
-  <si>
-    <t>Tỉnh Đắk Lắk</t>
-  </si>
-  <si>
-    <t>Tỉnh Đắk Nông</t>
-  </si>
-  <si>
-    <t>Tỉnh Lâm Đồng</t>
-  </si>
-  <si>
-    <t>Tỉnh Bình Phước</t>
-  </si>
-  <si>
-    <t>Tỉnh Tây Ninh</t>
-  </si>
-  <si>
-    <t>Tỉnh Bình Dương</t>
-  </si>
-  <si>
-    <t>Tỉnh Đồng Nai</t>
-  </si>
-  <si>
-    <t>Tỉnh Bà Rịa - Vũng Tàu</t>
-  </si>
-  <si>
-    <t>Thành phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Tỉnh Long An</t>
-  </si>
-  <si>
-    <t>Tỉnh Tiền Giang</t>
-  </si>
-  <si>
-    <t>Tỉnh Bến Tre</t>
-  </si>
-  <si>
-    <t>Tỉnh Trà Vinh</t>
-  </si>
-  <si>
-    <t>Tỉnh Vĩnh Long</t>
-  </si>
-  <si>
-    <t>Tỉnh Đồng Tháp</t>
-  </si>
-  <si>
-    <t>Tỉnh An Giang</t>
-  </si>
-  <si>
-    <t>Tỉnh Kiên Giang</t>
-  </si>
-  <si>
-    <t>Thành phố Cần Thơ</t>
-  </si>
-  <si>
-    <t>Tỉnh Hậu Giang</t>
-  </si>
-  <si>
-    <t>Tỉnh Sóc Trăng</t>
-  </si>
-  <si>
-    <t>Tỉnh Bạc Liêu</t>
-  </si>
-  <si>
-    <t>Tỉnh Cà Mau</t>
-  </si>
-  <si>
     <t>Ma</t>
   </si>
   <si>
@@ -220,7 +34,193 @@
     <t>Cap</t>
   </si>
   <si>
-    <t>Thành phố Hà Nội 11</t>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Đồng Nai</t>
+  </si>
+  <si>
+    <t>Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Tiền Giang</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Đồng Tháp</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>Hậu Giang</t>
+  </si>
+  <si>
+    <t>Sóc Trăng</t>
+  </si>
+  <si>
+    <t>Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Hà Giang</t>
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t>Bắc Kạn</t>
+  </si>
+  <si>
+    <t>Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t>Lai Châu</t>
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t>Yên Bái</t>
+  </si>
+  <si>
+    <t>Hoà Bình</t>
+  </si>
+  <si>
+    <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Lạng Sơn</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
+  <si>
+    <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t>Quảng Trị</t>
+  </si>
+  <si>
+    <t>Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Bình Thuận</t>
+  </si>
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t>Đắk Lắk</t>
+  </si>
+  <si>
+    <t>Đắk Nông</t>
+  </si>
+  <si>
+    <t>Lâm Đồng</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
   </si>
 </sst>
 </file>
@@ -649,780 +649,784 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="3">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
+        <v>87</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>30</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
